--- a/resultados/aleatoriedad-inicio/aleatoriedad-general-regular.xlsx
+++ b/resultados/aleatoriedad-inicio/aleatoriedad-general-regular.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="842">
   <si>
     <t>Indicador</t>
   </si>
@@ -38,6 +38,9 @@
     <t>All</t>
   </si>
   <si>
+    <t>Frac. Fácil Gral. h1 p3 c3</t>
+  </si>
+  <si>
     <t>Frac. Fácil Gral. h1 p4 c3</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t>Frac. Fácil Gral. h1 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h1 p7 c3</t>
+    <t>Frac. Fácil Gral. h1 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h1 p4 c4</t>
@@ -59,7 +62,7 @@
     <t>Frac. Fácil Gral. h1 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h1 p7 c4</t>
+    <t>Frac. Fácil Gral. h1 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h1 p4 c5</t>
@@ -71,7 +74,7 @@
     <t>Frac. Fácil Gral. h1 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h1 p7 c5</t>
+    <t>Frac. Fácil Gral. h2 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h2 p4 c3</t>
@@ -83,7 +86,7 @@
     <t>Frac. Fácil Gral. h2 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h2 p7 c3</t>
+    <t>Frac. Fácil Gral. h2 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h2 p4 c4</t>
@@ -95,7 +98,7 @@
     <t>Frac. Fácil Gral. h2 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h2 p7 c4</t>
+    <t>Frac. Fácil Gral. h2 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h2 p4 c5</t>
@@ -107,7 +110,7 @@
     <t>Frac. Fácil Gral. h2 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h2 p7 c5</t>
+    <t>Frac. Fácil Gral. h3 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h3 p4 c3</t>
@@ -119,7 +122,7 @@
     <t>Frac. Fácil Gral. h3 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h3 p7 c3</t>
+    <t>Frac. Fácil Gral. h3 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h3 p4 c4</t>
@@ -131,7 +134,7 @@
     <t>Frac. Fácil Gral. h3 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h3 p7 c4</t>
+    <t>Frac. Fácil Gral. h3 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h3 p4 c5</t>
@@ -143,7 +146,7 @@
     <t>Frac. Fácil Gral. h3 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h3 p7 c5</t>
+    <t>Frac. Fácil Gral. h4 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h4 p4 c3</t>
@@ -155,7 +158,7 @@
     <t>Frac. Fácil Gral. h4 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h4 p7 c3</t>
+    <t>Frac. Fácil Gral. h4 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h4 p4 c4</t>
@@ -167,7 +170,7 @@
     <t>Frac. Fácil Gral. h4 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h4 p7 c4</t>
+    <t>Frac. Fácil Gral. h4 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h4 p4 c5</t>
@@ -179,7 +182,7 @@
     <t>Frac. Fácil Gral. h4 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h4 p7 c5</t>
+    <t>Frac. Fácil Gral. h5 p3 c3</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h5 p4 c3</t>
@@ -191,7 +194,7 @@
     <t>Frac. Fácil Gral. h5 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h5 p7 c3</t>
+    <t>Frac. Fácil Gral. h5 p3 c4</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h5 p4 c4</t>
@@ -203,7 +206,7 @@
     <t>Frac. Fácil Gral. h5 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h5 p7 c4</t>
+    <t>Frac. Fácil Gral. h5 p3 c5</t>
   </si>
   <si>
     <t>Frac. Fácil Gral. h5 p4 c5</t>
@@ -215,7 +218,7 @@
     <t>Frac. Fácil Gral. h5 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Fácil Gral. h5 p7 c5</t>
+    <t>0.845 (N = 157)</t>
   </si>
   <si>
     <t>0.679 (N = 157)</t>
@@ -227,7 +230,7 @@
     <t>0.472 (N = 157)</t>
   </si>
   <si>
-    <t>0.418 (N = 157)</t>
+    <t>0.139 (N = 127)</t>
   </si>
   <si>
     <t>0.248 (N = 127)</t>
@@ -239,7 +242,7 @@
     <t>0.054 (N = 127)</t>
   </si>
   <si>
-    <t>0.138 (N = 127)</t>
+    <t>0.437 (N = 97)</t>
   </si>
   <si>
     <t>0.891 (N = 97)</t>
@@ -251,7 +254,7 @@
     <t>0.952 (N = 97)</t>
   </si>
   <si>
-    <t>0.897 (N = 97)</t>
+    <t>0.3 (N = 172)</t>
   </si>
   <si>
     <t>0.401 (N = 172)</t>
@@ -263,7 +266,7 @@
     <t>0.821 (N = 172)</t>
   </si>
   <si>
-    <t>0.838 (N = 172)</t>
+    <t>0.287 (N = 142)</t>
   </si>
   <si>
     <t>0.143 (N = 142)</t>
@@ -275,7 +278,7 @@
     <t>0.219 (N = 142)</t>
   </si>
   <si>
-    <t>0.16 (N = 142)</t>
+    <t>0.085 (N = 112)</t>
   </si>
   <si>
     <t>0.022 (N = 112)</t>
@@ -287,6 +290,9 @@
     <t>0.068 (N = 112)</t>
   </si>
   <si>
+    <t>0.366 (N = 176)</t>
+  </si>
+  <si>
     <t>0.768 (N = 176)</t>
   </si>
   <si>
@@ -296,7 +302,7 @@
     <t>0.882 (N = 176)</t>
   </si>
   <si>
-    <t>0.499 (N = 176)</t>
+    <t>0.436 (N = 146)</t>
   </si>
   <si>
     <t>0.702 (N = 146)</t>
@@ -308,7 +314,7 @@
     <t>0.558 (N = 146)</t>
   </si>
   <si>
-    <t>0.141 (N = 146)</t>
+    <t>0.551 (N = 116)</t>
   </si>
   <si>
     <t>0.528 (N = 116)</t>
@@ -320,7 +326,7 @@
     <t>0.449 (N = 116)</t>
   </si>
   <si>
-    <t>0.3 (N = 116)</t>
+    <t>0.802 (N = 177)</t>
   </si>
   <si>
     <t>0.634 (N = 177)</t>
@@ -332,7 +338,7 @@
     <t>0.301 (N = 177)</t>
   </si>
   <si>
-    <t>0.121 (N = 177)</t>
+    <t>0.656 (N = 147)</t>
   </si>
   <si>
     <t>0.51 (N = 147)</t>
@@ -344,7 +350,7 @@
     <t>0.617 (N = 147)</t>
   </si>
   <si>
-    <t>0.499 (N = 147)</t>
+    <t>0.641 (N = 117)</t>
   </si>
   <si>
     <t>0.472 (N = 117)</t>
@@ -356,7 +362,7 @@
     <t>0.891 (N = 117)</t>
   </si>
   <si>
-    <t>0.943 (N = 117)</t>
+    <t>0.705 (N = 178)</t>
   </si>
   <si>
     <t>0.941 (N = 178)</t>
@@ -368,7 +374,7 @@
     <t>0.829 (N = 178)</t>
   </si>
   <si>
-    <t>0.869 (N = 178)</t>
+    <t>0.526 (N = 148)</t>
   </si>
   <si>
     <t>0.906 (N = 148)</t>
@@ -380,7 +386,7 @@
     <t>0.559 (N = 148)</t>
   </si>
   <si>
-    <t>0.437 (N = 148)</t>
+    <t>0.098 (N = 118)</t>
   </si>
   <si>
     <t>0.347 (N = 118)</t>
@@ -392,7 +398,7 @@
     <t>0.671 (N = 118)</t>
   </si>
   <si>
-    <t>0.699 (N = 118)</t>
+    <t>0.497 (N = 180)</t>
   </si>
   <si>
     <t>0.628 (N = 180)</t>
@@ -404,7 +410,7 @@
     <t>0.467 (N = 180)</t>
   </si>
   <si>
-    <t>0.272 (N = 180)</t>
+    <t>0.62 (N = 150)</t>
   </si>
   <si>
     <t>0.356 (N = 150)</t>
@@ -416,7 +422,7 @@
     <t>0.379 (N = 150)</t>
   </si>
   <si>
-    <t>0.367 (N = 150)</t>
+    <t>0.847 (N = 120)</t>
   </si>
   <si>
     <t>0.402 (N = 120)</t>
@@ -428,7 +434,7 @@
     <t>0.259 (N = 120)</t>
   </si>
   <si>
-    <t>0.113 (N = 120)</t>
+    <t>0.894 (N = 190)</t>
   </si>
   <si>
     <t>0.724 (N = 190)</t>
@@ -440,7 +446,7 @@
     <t>0.235 (N = 190)</t>
   </si>
   <si>
-    <t>0.494 (N = 190)</t>
+    <t>0.933 (N = 160)</t>
   </si>
   <si>
     <t>0.74 (N = 160)</t>
@@ -452,7 +458,7 @@
     <t>0.554 (N = 160)</t>
   </si>
   <si>
-    <t>0.365 (N = 160)</t>
+    <t>0.628 (N = 130)</t>
   </si>
   <si>
     <t>0.583 (N = 130)</t>
@@ -464,7 +470,7 @@
     <t>0.604 (N = 130)</t>
   </si>
   <si>
-    <t>0.355 (N = 130)</t>
+    <t>0.779 (N = 197)</t>
   </si>
   <si>
     <t>0.397 (N = 197)</t>
@@ -476,7 +482,7 @@
     <t>0.146 (N = 197)</t>
   </si>
   <si>
-    <t>0.361 (N = 197)</t>
+    <t>0.539 (N = 167)</t>
   </si>
   <si>
     <t>0.362 (N = 167)</t>
@@ -488,7 +494,7 @@
     <t>0.612 (N = 167)</t>
   </si>
   <si>
-    <t>0.81 (N = 167)</t>
+    <t>0.503 (N = 137)</t>
   </si>
   <si>
     <t>0.323 (N = 137)</t>
@@ -500,31 +506,31 @@
     <t>0.412 (N = 137)</t>
   </si>
   <si>
-    <t>0.675 (N = 137)</t>
-  </si>
-  <si>
-    <t>0.36 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.659 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.183 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.137 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.803 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.857 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.364 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.36 (N = 174)</t>
+    <t>0.814 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.348 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.645 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.22 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.869 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.794 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.852 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.395 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.557 (N = 144)</t>
   </si>
   <si>
     <t>0.675 (N = 144)</t>
@@ -536,43 +542,43 @@
     <t>0.162 (N = 144)</t>
   </si>
   <si>
-    <t>0.406 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.434 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.681 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.355 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.146 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.45 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.655 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.243 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.183 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.849 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.802 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.635 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.301 (N = 144)</t>
+    <t>0.088 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.462 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.668 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.373 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.462 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.447 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.622 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.246 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.876 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.873 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.794 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.672 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.497 (N = 120)</t>
   </si>
   <si>
     <t>0.518 (N = 120)</t>
@@ -584,7 +590,7 @@
     <t>0.74 (N = 120)</t>
   </si>
   <si>
-    <t>0.601 (N = 120)</t>
+    <t>0.504 (N = 100)</t>
   </si>
   <si>
     <t>0.427 (N = 100)</t>
@@ -596,6 +602,9 @@
     <t>0.866 (N = 100)</t>
   </si>
   <si>
+    <t>0.716 (N = 80)</t>
+  </si>
+  <si>
     <t>0.382 (N = 80)</t>
   </si>
   <si>
@@ -605,7 +614,7 @@
     <t>0.929 (N = 80)</t>
   </si>
   <si>
-    <t>0.911 (N = 80)</t>
+    <t>0.428 (N = 125)</t>
   </si>
   <si>
     <t>0.296 (N = 125)</t>
@@ -617,7 +626,7 @@
     <t>0.6 (N = 125)</t>
   </si>
   <si>
-    <t>0.211 (N = 125)</t>
+    <t>0.3 (N = 105)</t>
   </si>
   <si>
     <t>0.537 (N = 105)</t>
@@ -629,7 +638,7 @@
     <t>0.674 (N = 105)</t>
   </si>
   <si>
-    <t>0.673 (N = 105)</t>
+    <t>0.628 (N = 85)</t>
   </si>
   <si>
     <t>0.342 (N = 85)</t>
@@ -641,7 +650,7 @@
     <t>0.588 (N = 85)</t>
   </si>
   <si>
-    <t>0.383 (N = 85)</t>
+    <t>0.825 (N = 128)</t>
   </si>
   <si>
     <t>0.813 (N = 128)</t>
@@ -653,7 +662,7 @@
     <t>0.899 (N = 128)</t>
   </si>
   <si>
-    <t>0.546 (N = 128)</t>
+    <t>0.748 (N = 108)</t>
   </si>
   <si>
     <t>0.445 (N = 108)</t>
@@ -665,7 +674,7 @@
     <t>0.448 (N = 108)</t>
   </si>
   <si>
-    <t>0.127 (N = 108)</t>
+    <t>0.997 (N = 88)</t>
   </si>
   <si>
     <t>0.98 (N = 88)</t>
@@ -677,7 +686,7 @@
     <t>0.953 (N = 88)</t>
   </si>
   <si>
-    <t>0.716 (N = 88)</t>
+    <t>0.027 (N = 130)</t>
   </si>
   <si>
     <t>0.364 (N = 130)</t>
@@ -686,7 +695,7 @@
     <t>0.555 (N = 130)</t>
   </si>
   <si>
-    <t>0.393 (N = 130)</t>
+    <t>0.222 (N = 110)</t>
   </si>
   <si>
     <t>0.42 (N = 110)</t>
@@ -698,7 +707,7 @@
     <t>0.896 (N = 110)</t>
   </si>
   <si>
-    <t>0.25 (N = 110)</t>
+    <t>0.728 (N = 90)</t>
   </si>
   <si>
     <t>0.914 (N = 90)</t>
@@ -710,7 +719,7 @@
     <t>0.985 (N = 90)</t>
   </si>
   <si>
-    <t>0.513 (N = 90)</t>
+    <t>0.042 (N = 131)</t>
   </si>
   <si>
     <t>0.278 (N = 131)</t>
@@ -722,7 +731,7 @@
     <t>0.548 (N = 131)</t>
   </si>
   <si>
-    <t>0.252 (N = 131)</t>
+    <t>0.065 (N = 111)</t>
   </si>
   <si>
     <t>0.306 (N = 111)</t>
@@ -734,7 +743,7 @@
     <t>0.867 (N = 111)</t>
   </si>
   <si>
-    <t>0.5 (N = 111)</t>
+    <t>0.166 (N = 91)</t>
   </si>
   <si>
     <t>0.059 (N = 91)</t>
@@ -746,124 +755,127 @@
     <t>0.469 (N = 91)</t>
   </si>
   <si>
-    <t>0.27 (N = 91)</t>
-  </si>
-  <si>
-    <t>0.406 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.139 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.365 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.615 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.47 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.355 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.697 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.825 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.347 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.61 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.748 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.937 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.228 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.079 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.074 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.366 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.079 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.074 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.019 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.157 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.004 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.014 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.039 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.749 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.452 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.447 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.839 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.277 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.448 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.37 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.839 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.618 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.507 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.132 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.336 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.005 (N = 336)</t>
-  </si>
-  <si>
-    <t>0.018 (N = 336)</t>
-  </si>
-  <si>
-    <t>0.038 (N = 336)</t>
-  </si>
-  <si>
-    <t>0.068 (N = 336)</t>
+    <t>0.714 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.405 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.142 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.347 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.385 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.469 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.369 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.691 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.249 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.375 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.648 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.757 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.035 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.192 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.063 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.062 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.009 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.083 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.077 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.019 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.007 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.004 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.017 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.005 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.217 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.733 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.432 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.429 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.011 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.277 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.447 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.368 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.211 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.602 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.499 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.129 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.028 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.004 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.016 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.034 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.302 (N = 286)</t>
   </si>
   <si>
     <t>0.077 (N = 286)</t>
@@ -875,7 +887,7 @@
     <t>0.049 (N = 286)</t>
   </si>
   <si>
-    <t>0.063 (N = 286)</t>
+    <t>0.826 (N = 236)</t>
   </si>
   <si>
     <t>0.574 (N = 236)</t>
@@ -887,43 +899,43 @@
     <t>0.337 (N = 236)</t>
   </si>
   <si>
-    <t>0.619 (N = 236)</t>
-  </si>
-  <si>
-    <t>0.117 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.175 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.031 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.193 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.671 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.672 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.241 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.407 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.831 (N = 240)</t>
-  </si>
-  <si>
-    <t>0.878 (N = 240)</t>
-  </si>
-  <si>
-    <t>0.552 (N = 240)</t>
-  </si>
-  <si>
-    <t>0.97 (N = 240)</t>
+    <t>0.116 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.115 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.178 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.032 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.572 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.674 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.68 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.247 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.47 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.837 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.885 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.566 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.096 (N = 174)</t>
   </si>
   <si>
     <t>0.161 (N = 174)</t>
@@ -935,6 +947,9 @@
     <t>0.349 (N = 174)</t>
   </si>
   <si>
+    <t>0.337 (N = 144)</t>
+  </si>
+  <si>
     <t>0.511 (N = 144)</t>
   </si>
   <si>
@@ -944,7 +959,7 @@
     <t>0.432 (N = 144)</t>
   </si>
   <si>
-    <t>0.338 (N = 144)</t>
+    <t>0.628 (N = 114)</t>
   </si>
   <si>
     <t>0.226 (N = 114)</t>
@@ -956,7 +971,7 @@
     <t>0.219 (N = 114)</t>
   </si>
   <si>
-    <t>0.557 (N = 114)</t>
+    <t>0.896 (N = 190)</t>
   </si>
   <si>
     <t>0.239 (N = 190)</t>
@@ -968,7 +983,7 @@
     <t>0.216 (N = 190)</t>
   </si>
   <si>
-    <t>0.146 (N = 190)</t>
+    <t>0.845 (N = 160)</t>
   </si>
   <si>
     <t>0.19 (N = 160)</t>
@@ -980,7 +995,7 @@
     <t>0.112 (N = 160)</t>
   </si>
   <si>
-    <t>0.205 (N = 160)</t>
+    <t>0.831 (N = 130)</t>
   </si>
   <si>
     <t>0.178 (N = 130)</t>
@@ -992,7 +1007,7 @@
     <t>0.239 (N = 130)</t>
   </si>
   <si>
-    <t>0.378 (N = 130)</t>
+    <t>0.419 (N = 193)</t>
   </si>
   <si>
     <t>0.244 (N = 193)</t>
@@ -1004,7 +1019,7 @@
     <t>0.11 (N = 193)</t>
   </si>
   <si>
-    <t>0.062 (N = 193)</t>
+    <t>0.486 (N = 163)</t>
   </si>
   <si>
     <t>0.251 (N = 163)</t>
@@ -1016,7 +1031,7 @@
     <t>0.382 (N = 163)</t>
   </si>
   <si>
-    <t>0.363 (N = 163)</t>
+    <t>0.563 (N = 133)</t>
   </si>
   <si>
     <t>0.652 (N = 133)</t>
@@ -1028,7 +1043,7 @@
     <t>0.553 (N = 133)</t>
   </si>
   <si>
-    <t>0.473 (N = 133)</t>
+    <t>0.901 (N = 197)</t>
   </si>
   <si>
     <t>0.628 (N = 197)</t>
@@ -1040,7 +1055,7 @@
     <t>0.912 (N = 197)</t>
   </si>
   <si>
-    <t>0.822 (N = 197)</t>
+    <t>0.995 (N = 167)</t>
   </si>
   <si>
     <t>0.721 (N = 167)</t>
@@ -1052,7 +1067,7 @@
     <t>0.911 (N = 167)</t>
   </si>
   <si>
-    <t>0.919 (N = 167)</t>
+    <t>0.997 (N = 137)</t>
   </si>
   <si>
     <t>0.736 (N = 137)</t>
@@ -1064,7 +1079,7 @@
     <t>0.945 (N = 137)</t>
   </si>
   <si>
-    <t>0.975 (N = 137)</t>
+    <t>0.477 (N = 199)</t>
   </si>
   <si>
     <t>0.315 (N = 199)</t>
@@ -1076,7 +1091,7 @@
     <t>0.31 (N = 199)</t>
   </si>
   <si>
-    <t>0.185 (N = 199)</t>
+    <t>0.289 (N = 169)</t>
   </si>
   <si>
     <t>0.267 (N = 169)</t>
@@ -1088,7 +1103,7 @@
     <t>0.183 (N = 169)</t>
   </si>
   <si>
-    <t>0.098 (N = 169)</t>
+    <t>0.582 (N = 139)</t>
   </si>
   <si>
     <t>0.398 (N = 139)</t>
@@ -1100,139 +1115,139 @@
     <t>0.206 (N = 139)</t>
   </si>
   <si>
-    <t>0.292 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.506 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.11 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.519 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.473 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.299 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.081 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.479 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.592 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.391 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.413 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.81 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.907 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.299 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.132 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.211 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.317 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.131 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.103 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.056 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.123 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.001 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.007 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.012 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.016 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.809 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.665 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.479 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.384 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.34 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.521 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.394 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.344 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.739 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.509 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.401 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.445 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.102 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.269 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.162 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.072 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.427 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.512 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.51 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.219 (N = 884)</t>
+    <t>0.546 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.503 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.111 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.508 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.336 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.298 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.084 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.478 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.713 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.407 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.44 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.817 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.396 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.273 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.118 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.197 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.282 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.133 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.106 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.055 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.093 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.001 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.008 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.013 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.581 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.8 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.654 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.471 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.174 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.338 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.519 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.394 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.717 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.729 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.504 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.398 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.261 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.094 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.251 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.169 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.872 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.424 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.511 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.522 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.982 (N = 724)</t>
   </si>
   <si>
     <t>0.846 (N = 724)</t>
@@ -1244,43 +1259,43 @@
     <t>0.871 (N = 724)</t>
   </si>
   <si>
-    <t>0.9 (N = 724)</t>
-  </si>
-  <si>
-    <t>0.356 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.515 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.171 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.16 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.657 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.729 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.288 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.183 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.556 (N = 732)</t>
-  </si>
-  <si>
-    <t>0.62 (N = 732)</t>
-  </si>
-  <si>
-    <t>0.484 (N = 732)</t>
-  </si>
-  <si>
-    <t>0.686 (N = 732)</t>
+    <t>0.044 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.367 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.514 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.178 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.284 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.663 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.725 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.294 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.425 (N = 730)</t>
+  </si>
+  <si>
+    <t>0.581 (N = 730)</t>
+  </si>
+  <si>
+    <t>0.629 (N = 730)</t>
+  </si>
+  <si>
+    <t>0.51 (N = 730)</t>
+  </si>
+  <si>
+    <t>Frac. Difícil Gral. h1 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h1 p4 c3</t>
@@ -1292,7 +1307,7 @@
     <t>Frac. Difícil Gral. h1 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h1 p7 c3</t>
+    <t>Frac. Difícil Gral. h1 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h1 p4 c4</t>
@@ -1304,7 +1319,7 @@
     <t>Frac. Difícil Gral. h1 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h1 p7 c4</t>
+    <t>Frac. Difícil Gral. h1 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h1 p4 c5</t>
@@ -1316,7 +1331,7 @@
     <t>Frac. Difícil Gral. h1 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h1 p7 c5</t>
+    <t>Frac. Difícil Gral. h2 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h2 p4 c3</t>
@@ -1328,7 +1343,7 @@
     <t>Frac. Difícil Gral. h2 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h2 p7 c3</t>
+    <t>Frac. Difícil Gral. h2 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h2 p4 c4</t>
@@ -1340,7 +1355,7 @@
     <t>Frac. Difícil Gral. h2 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h2 p7 c4</t>
+    <t>Frac. Difícil Gral. h2 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h2 p4 c5</t>
@@ -1352,7 +1367,7 @@
     <t>Frac. Difícil Gral. h2 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h2 p7 c5</t>
+    <t>Frac. Difícil Gral. h3 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h3 p4 c3</t>
@@ -1364,7 +1379,7 @@
     <t>Frac. Difícil Gral. h3 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h3 p7 c3</t>
+    <t>Frac. Difícil Gral. h3 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h3 p4 c4</t>
@@ -1376,7 +1391,7 @@
     <t>Frac. Difícil Gral. h3 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h3 p7 c4</t>
+    <t>Frac. Difícil Gral. h3 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h3 p4 c5</t>
@@ -1388,7 +1403,7 @@
     <t>Frac. Difícil Gral. h3 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h3 p7 c5</t>
+    <t>Frac. Difícil Gral. h4 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h4 p4 c3</t>
@@ -1400,7 +1415,7 @@
     <t>Frac. Difícil Gral. h4 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h4 p7 c3</t>
+    <t>Frac. Difícil Gral. h4 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h4 p4 c4</t>
@@ -1412,7 +1427,7 @@
     <t>Frac. Difícil Gral. h4 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h4 p7 c4</t>
+    <t>Frac. Difícil Gral. h4 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h4 p4 c5</t>
@@ -1424,7 +1439,7 @@
     <t>Frac. Difícil Gral. h4 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h4 p7 c5</t>
+    <t>Frac. Difícil Gral. h5 p3 c3</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h5 p4 c3</t>
@@ -1436,7 +1451,7 @@
     <t>Frac. Difícil Gral. h5 p6 c3</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h5 p7 c3</t>
+    <t>Frac. Difícil Gral. h5 p3 c4</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h5 p4 c4</t>
@@ -1448,7 +1463,7 @@
     <t>Frac. Difícil Gral. h5 p6 c4</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h5 p7 c4</t>
+    <t>Frac. Difícil Gral. h5 p3 c5</t>
   </si>
   <si>
     <t>Frac. Difícil Gral. h5 p4 c5</t>
@@ -1460,7 +1475,7 @@
     <t>Frac. Difícil Gral. h5 p6 c5</t>
   </si>
   <si>
-    <t>Frac. Difícil Gral. h5 p7 c5</t>
+    <t>0.683 (N = 157)</t>
   </si>
   <si>
     <t>0.926 (N = 157)</t>
@@ -1472,7 +1487,7 @@
     <t>0.312 (N = 157)</t>
   </si>
   <si>
-    <t>0.52 (N = 157)</t>
+    <t>0.158 (N = 127)</t>
   </si>
   <si>
     <t>0.88 (N = 127)</t>
@@ -1484,7 +1499,7 @@
     <t>0.948 (N = 127)</t>
   </si>
   <si>
-    <t>0.638 (N = 127)</t>
+    <t>0.329 (N = 97)</t>
   </si>
   <si>
     <t>0.732 (N = 97)</t>
@@ -1496,7 +1511,7 @@
     <t>0.797 (N = 97)</t>
   </si>
   <si>
-    <t>0.32 (N = 97)</t>
+    <t>0.377 (N = 172)</t>
   </si>
   <si>
     <t>0.844 (N = 172)</t>
@@ -1508,7 +1523,7 @@
     <t>0.295 (N = 172)</t>
   </si>
   <si>
-    <t>0.225 (N = 172)</t>
+    <t>0.375 (N = 142)</t>
   </si>
   <si>
     <t>0.902 (N = 142)</t>
@@ -1520,7 +1535,7 @@
     <t>0.166 (N = 142)</t>
   </si>
   <si>
-    <t>0.599 (N = 142)</t>
+    <t>0.244 (N = 112)</t>
   </si>
   <si>
     <t>0.375 (N = 112)</t>
@@ -1532,7 +1547,7 @@
     <t>0.548 (N = 112)</t>
   </si>
   <si>
-    <t>0.522 (N = 112)</t>
+    <t>0.447 (N = 176)</t>
   </si>
   <si>
     <t>0.68 (N = 176)</t>
@@ -1544,7 +1559,7 @@
     <t>0.24 (N = 176)</t>
   </si>
   <si>
-    <t>0.297 (N = 176)</t>
+    <t>0.049 (N = 146)</t>
   </si>
   <si>
     <t>0.318 (N = 146)</t>
@@ -1556,7 +1571,7 @@
     <t>0.02 (N = 146)</t>
   </si>
   <si>
-    <t>0.01 (N = 146)</t>
+    <t>0.497 (N = 116)</t>
   </si>
   <si>
     <t>0.569 (N = 116)</t>
@@ -1568,7 +1583,7 @@
     <t>0.055 (N = 116)</t>
   </si>
   <si>
-    <t>0.012 (N = 116)</t>
+    <t>0.606 (N = 177)</t>
   </si>
   <si>
     <t>0.763 (N = 177)</t>
@@ -1580,7 +1595,7 @@
     <t>0.633 (N = 177)</t>
   </si>
   <si>
-    <t>0.271 (N = 177)</t>
+    <t>0.355 (N = 147)</t>
   </si>
   <si>
     <t>0.337 (N = 147)</t>
@@ -1592,7 +1607,7 @@
     <t>0.585 (N = 147)</t>
   </si>
   <si>
-    <t>0.748 (N = 147)</t>
+    <t>0.677 (N = 117)</t>
   </si>
   <si>
     <t>0.601 (N = 117)</t>
@@ -1604,7 +1619,7 @@
     <t>0.827 (N = 117)</t>
   </si>
   <si>
-    <t>0.925 (N = 117)</t>
+    <t>0.206 (N = 178)</t>
   </si>
   <si>
     <t>0.491 (N = 178)</t>
@@ -1616,7 +1631,7 @@
     <t>0.557 (N = 178)</t>
   </si>
   <si>
-    <t>0.161 (N = 178)</t>
+    <t>0.333 (N = 148)</t>
   </si>
   <si>
     <t>0.41 (N = 148)</t>
@@ -1628,7 +1643,7 @@
     <t>0.118 (N = 148)</t>
   </si>
   <si>
-    <t>0.04 (N = 148)</t>
+    <t>0.498 (N = 118)</t>
   </si>
   <si>
     <t>0.511 (N = 118)</t>
@@ -1640,7 +1655,7 @@
     <t>0.053 (N = 118)</t>
   </si>
   <si>
-    <t>0.271 (N = 118)</t>
+    <t>0.131 (N = 180)</t>
   </si>
   <si>
     <t>0.204 (N = 180)</t>
@@ -1649,7 +1664,7 @@
     <t>0.025 (N = 180)</t>
   </si>
   <si>
-    <t>0.149 (N = 180)</t>
+    <t>0.449 (N = 150)</t>
   </si>
   <si>
     <t>0.159 (N = 150)</t>
@@ -1661,7 +1676,7 @@
     <t>0.482 (N = 150)</t>
   </si>
   <si>
-    <t>0.318 (N = 150)</t>
+    <t>0.132 (N = 120)</t>
   </si>
   <si>
     <t>0.003 (N = 120)</t>
@@ -1673,7 +1688,7 @@
     <t>0.2 (N = 120)</t>
   </si>
   <si>
-    <t>0.111 (N = 120)</t>
+    <t>0.471 (N = 190)</t>
   </si>
   <si>
     <t>0.641 (N = 190)</t>
@@ -1685,7 +1700,7 @@
     <t>0.432 (N = 190)</t>
   </si>
   <si>
-    <t>0.484 (N = 190)</t>
+    <t>0.468 (N = 160)</t>
   </si>
   <si>
     <t>0.256 (N = 160)</t>
@@ -1697,7 +1712,7 @@
     <t>0.459 (N = 160)</t>
   </si>
   <si>
-    <t>0.304 (N = 160)</t>
+    <t>0.517 (N = 130)</t>
   </si>
   <si>
     <t>0.238 (N = 130)</t>
@@ -1709,7 +1724,7 @@
     <t>0.637 (N = 130)</t>
   </si>
   <si>
-    <t>0.267 (N = 130)</t>
+    <t>0.732 (N = 197)</t>
   </si>
   <si>
     <t>0.303 (N = 197)</t>
@@ -1721,7 +1736,7 @@
     <t>0.427 (N = 197)</t>
   </si>
   <si>
-    <t>0.156 (N = 197)</t>
+    <t>0.336 (N = 167)</t>
   </si>
   <si>
     <t>0.031 (N = 167)</t>
@@ -1733,7 +1748,7 @@
     <t>0.037 (N = 167)</t>
   </si>
   <si>
-    <t>0.016 (N = 167)</t>
+    <t>0.716 (N = 137)</t>
   </si>
   <si>
     <t>0.141 (N = 137)</t>
@@ -1745,31 +1760,31 @@
     <t>0.29 (N = 137)</t>
   </si>
   <si>
-    <t>0.093 (N = 137)</t>
-  </si>
-  <si>
-    <t>0.344 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.134 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.319 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.399 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.557 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.207 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.25 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.235 (N = 174)</t>
+    <t>0.317 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.364 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.136 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.325 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.174 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.561 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.204 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.254 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.605 (N = 144)</t>
   </si>
   <si>
     <t>0.915 (N = 144)</t>
@@ -1781,43 +1796,43 @@
     <t>0.407 (N = 144)</t>
   </si>
   <si>
-    <t>0.456 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.175 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.044 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.301 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.247 (N = 204)</t>
-  </si>
-  <si>
-    <t>0.212 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.279 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.684 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.326 (N = 174)</t>
-  </si>
-  <si>
-    <t>0.12 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.232 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.157 (N = 144)</t>
-  </si>
-  <si>
-    <t>0.033 (N = 144)</t>
+    <t>0.146 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.139 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.036 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.277 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.283 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.179 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.277 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.693 (N = 173)</t>
+  </si>
+  <si>
+    <t>0.073 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.111 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.244 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.175 (N = 143)</t>
+  </si>
+  <si>
+    <t>0.688 (N = 120)</t>
   </si>
   <si>
     <t>0.687 (N = 120)</t>
@@ -1829,7 +1844,7 @@
     <t>0.807 (N = 120)</t>
   </si>
   <si>
-    <t>0.646 (N = 120)</t>
+    <t>0.351 (N = 100)</t>
   </si>
   <si>
     <t>0.613 (N = 100)</t>
@@ -1841,7 +1856,7 @@
     <t>0.561 (N = 100)</t>
   </si>
   <si>
-    <t>0.618 (N = 100)</t>
+    <t>0.496 (N = 80)</t>
   </si>
   <si>
     <t>0.875 (N = 80)</t>
@@ -1853,7 +1868,7 @@
     <t>0.882 (N = 80)</t>
   </si>
   <si>
-    <t>0.811 (N = 80)</t>
+    <t>0.833 (N = 125)</t>
   </si>
   <si>
     <t>0.761 (N = 125)</t>
@@ -1865,7 +1880,7 @@
     <t>0.903 (N = 125)</t>
   </si>
   <si>
-    <t>0.562 (N = 125)</t>
+    <t>0.79 (N = 105)</t>
   </si>
   <si>
     <t>0.843 (N = 105)</t>
@@ -1877,7 +1892,7 @@
     <t>0.933 (N = 105)</t>
   </si>
   <si>
-    <t>0.448 (N = 105)</t>
+    <t>0.659 (N = 85)</t>
   </si>
   <si>
     <t>0.888 (N = 85)</t>
@@ -1889,7 +1904,7 @@
     <t>0.881 (N = 85)</t>
   </si>
   <si>
-    <t>0.731 (N = 85)</t>
+    <t>0.619 (N = 128)</t>
   </si>
   <si>
     <t>0.935 (N = 128)</t>
@@ -1901,7 +1916,7 @@
     <t>0.855 (N = 128)</t>
   </si>
   <si>
-    <t>0.705 (N = 128)</t>
+    <t>0.827 (N = 108)</t>
   </si>
   <si>
     <t>0.926 (N = 108)</t>
@@ -1913,7 +1928,7 @@
     <t>0.911 (N = 108)</t>
   </si>
   <si>
-    <t>0.721 (N = 108)</t>
+    <t>0.844 (N = 88)</t>
   </si>
   <si>
     <t>0.912 (N = 88)</t>
@@ -1925,7 +1940,7 @@
     <t>0.396 (N = 88)</t>
   </si>
   <si>
-    <t>0.422 (N = 88)</t>
+    <t>0.978 (N = 130)</t>
   </si>
   <si>
     <t>0.81 (N = 130)</t>
@@ -1937,7 +1952,7 @@
     <t>0.561 (N = 130)</t>
   </si>
   <si>
-    <t>0.286 (N = 130)</t>
+    <t>0.946 (N = 110)</t>
   </si>
   <si>
     <t>0.578 (N = 110)</t>
@@ -1949,7 +1964,7 @@
     <t>0.785 (N = 110)</t>
   </si>
   <si>
-    <t>0.233 (N = 110)</t>
+    <t>0.952 (N = 90)</t>
   </si>
   <si>
     <t>0.641 (N = 90)</t>
@@ -1961,7 +1976,7 @@
     <t>0.502 (N = 90)</t>
   </si>
   <si>
-    <t>0.019 (N = 90)</t>
+    <t>0.216 (N = 131)</t>
   </si>
   <si>
     <t>0.465 (N = 131)</t>
@@ -1973,7 +1988,7 @@
     <t>0.335 (N = 131)</t>
   </si>
   <si>
-    <t>0.585 (N = 131)</t>
+    <t>0.218 (N = 111)</t>
   </si>
   <si>
     <t>0.168 (N = 111)</t>
@@ -1985,7 +2000,7 @@
     <t>0.272 (N = 111)</t>
   </si>
   <si>
-    <t>0.538 (N = 111)</t>
+    <t>0.581 (N = 91)</t>
   </si>
   <si>
     <t>0.347 (N = 91)</t>
@@ -1997,127 +2012,124 @@
     <t>0.109 (N = 91)</t>
   </si>
   <si>
-    <t>0.278 (N = 91)</t>
-  </si>
-  <si>
-    <t>0.867 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.799 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.574 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.568 (N = 305)</t>
-  </si>
-  <si>
-    <t>0.851 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.685 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.44 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.607 (N = 255)</t>
-  </si>
-  <si>
-    <t>0.26 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.191 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.108 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.313 (N = 205)</t>
-  </si>
-  <si>
-    <t>0.624 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.557 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.422 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.646 (N = 327)</t>
-  </si>
-  <si>
-    <t>0.74 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.518 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.608 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.891 (N = 277)</t>
-  </si>
-  <si>
-    <t>0.185 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.195 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.144 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.248 (N = 227)</t>
-  </si>
-  <si>
-    <t>0.437 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.481 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.365 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.499 (N = 334)</t>
-  </si>
-  <si>
-    <t>0.15 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.201 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.189 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.242 (N = 284)</t>
-  </si>
-  <si>
-    <t>0.36 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.314 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.069 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.435 (N = 234)</t>
-  </si>
-  <si>
-    <t>0.886 (N = 336)</t>
-  </si>
-  <si>
-    <t>0.791 (N = 336)</t>
-  </si>
-  <si>
-    <t>0.686 (N = 336)</t>
-  </si>
-  <si>
-    <t>0.854 (N = 336)</t>
+    <t>0.307 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.838 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.792 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.615 (N = 303)</t>
+  </si>
+  <si>
+    <t>0.465 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.878 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.784 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.522 (N = 253)</t>
+  </si>
+  <si>
+    <t>0.289 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.28 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.258 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.144 (N = 203)</t>
+  </si>
+  <si>
+    <t>0.62 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.564 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.459 (N = 325)</t>
+  </si>
+  <si>
+    <t>0.669 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.728 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.546 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.642 (N = 275)</t>
+  </si>
+  <si>
+    <t>0.556 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.185 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.249 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.176 (N = 225)</t>
+  </si>
+  <si>
+    <t>0.09 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.448 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.503 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.399 (N = 332)</t>
+  </si>
+  <si>
+    <t>0.05 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.147 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.208 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.193 (N = 283)</t>
+  </si>
+  <si>
+    <t>0.146 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.353 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.311 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.074 (N = 233)</t>
+  </si>
+  <si>
+    <t>0.716 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.884 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.795 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.691 (N = 335)</t>
+  </si>
+  <si>
+    <t>0.62 (N = 286)</t>
   </si>
   <si>
     <t>0.68 (N = 286)</t>
@@ -2129,7 +2141,7 @@
     <t>0.5 (N = 286)</t>
   </si>
   <si>
-    <t>0.83 (N = 286)</t>
+    <t>0.705 (N = 236)</t>
   </si>
   <si>
     <t>0.819 (N = 236)</t>
@@ -2141,43 +2153,43 @@
     <t>0.396 (N = 236)</t>
   </si>
   <si>
-    <t>0.669 (N = 236)</t>
-  </si>
-  <si>
-    <t>0.585 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.619 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.127 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.306 (N = 340)</t>
-  </si>
-  <si>
-    <t>0.967 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.937 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.777 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.923 (N = 290)</t>
-  </si>
-  <si>
-    <t>0.832 (N = 240)</t>
-  </si>
-  <si>
-    <t>0.866 (N = 240)</t>
-  </si>
-  <si>
-    <t>0.821 (N = 240)</t>
-  </si>
-  <si>
-    <t>0.854 (N = 240)</t>
+    <t>0.783 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.555 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.594 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.122 (N = 339)</t>
+  </si>
+  <si>
+    <t>0.995 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.96 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.933 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.778 (N = 289)</t>
+  </si>
+  <si>
+    <t>0.754 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.813 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.858 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.822 (N = 239)</t>
+  </si>
+  <si>
+    <t>0.933 (N = 174)</t>
   </si>
   <si>
     <t>0.817 (N = 174)</t>
@@ -2189,7 +2201,7 @@
     <t>0.556 (N = 174)</t>
   </si>
   <si>
-    <t>0.589 (N = 174)</t>
+    <t>0.985 (N = 144)</t>
   </si>
   <si>
     <t>0.72 (N = 144)</t>
@@ -2198,7 +2210,7 @@
     <t>0.34 (N = 144)</t>
   </si>
   <si>
-    <t>0.159 (N = 144)</t>
+    <t>0.789 (N = 114)</t>
   </si>
   <si>
     <t>0.533 (N = 114)</t>
@@ -2210,7 +2222,7 @@
     <t>0.571 (N = 114)</t>
   </si>
   <si>
-    <t>0.584 (N = 114)</t>
+    <t>0.831 (N = 190)</t>
   </si>
   <si>
     <t>0.568 (N = 190)</t>
@@ -2222,6 +2234,9 @@
     <t>0.388 (N = 190)</t>
   </si>
   <si>
+    <t>0.394 (N = 160)</t>
+  </si>
+  <si>
     <t>0.215 (N = 160)</t>
   </si>
   <si>
@@ -2231,7 +2246,7 @@
     <t>0.097 (N = 160)</t>
   </si>
   <si>
-    <t>0.219 (N = 160)</t>
+    <t>0.465 (N = 130)</t>
   </si>
   <si>
     <t>0.212 (N = 130)</t>
@@ -2243,7 +2258,7 @@
     <t>0.252 (N = 130)</t>
   </si>
   <si>
-    <t>0.278 (N = 130)</t>
+    <t>0.383 (N = 193)</t>
   </si>
   <si>
     <t>0.696 (N = 193)</t>
@@ -2255,7 +2270,7 @@
     <t>0.123 (N = 193)</t>
   </si>
   <si>
-    <t>0.056 (N = 193)</t>
+    <t>0.529 (N = 163)</t>
   </si>
   <si>
     <t>0.047 (N = 163)</t>
@@ -2264,7 +2279,7 @@
     <t>0.078 (N = 163)</t>
   </si>
   <si>
-    <t>0.039 (N = 163)</t>
+    <t>0.425 (N = 133)</t>
   </si>
   <si>
     <t>0.579 (N = 133)</t>
@@ -2276,7 +2291,7 @@
     <t>0.546 (N = 133)</t>
   </si>
   <si>
-    <t>0.406 (N = 133)</t>
+    <t>0.81 (N = 197)</t>
   </si>
   <si>
     <t>0.635 (N = 197)</t>
@@ -2288,7 +2303,7 @@
     <t>0.42 (N = 197)</t>
   </si>
   <si>
-    <t>0.231 (N = 197)</t>
+    <t>0.573 (N = 167)</t>
   </si>
   <si>
     <t>0.379 (N = 167)</t>
@@ -2300,7 +2315,7 @@
     <t>0.227 (N = 167)</t>
   </si>
   <si>
-    <t>0.244 (N = 167)</t>
+    <t>0.267 (N = 137)</t>
   </si>
   <si>
     <t>0.178 (N = 137)</t>
@@ -2312,7 +2327,7 @@
     <t>0.033 (N = 137)</t>
   </si>
   <si>
-    <t>0.14 (N = 137)</t>
+    <t>0.157 (N = 199)</t>
   </si>
   <si>
     <t>0.116 (N = 199)</t>
@@ -2324,7 +2339,7 @@
     <t>0.015 (N = 199)</t>
   </si>
   <si>
-    <t>0.043 (N = 199)</t>
+    <t>0.766 (N = 169)</t>
   </si>
   <si>
     <t>0.746 (N = 169)</t>
@@ -2336,7 +2351,7 @@
     <t>0.449 (N = 169)</t>
   </si>
   <si>
-    <t>0.367 (N = 169)</t>
+    <t>0.542 (N = 139)</t>
   </si>
   <si>
     <t>0.414 (N = 139)</t>
@@ -2348,139 +2363,139 @@
     <t>0.057 (N = 139)</t>
   </si>
   <si>
-    <t>0.115 (N = 139)</t>
-  </si>
-  <si>
-    <t>0.865 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.23 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.422 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.288 (N = 936)</t>
-  </si>
-  <si>
-    <t>0.738 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.426 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.604 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.389 (N = 776)</t>
-  </si>
-  <si>
-    <t>0.177 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.086 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.399 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.319 (N = 616)</t>
-  </si>
-  <si>
-    <t>0.904 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.218 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.494 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.534 (N = 1004)</t>
-  </si>
-  <si>
-    <t>0.742 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.261 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.492 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.631 (N = 844)</t>
-  </si>
-  <si>
-    <t>0.24 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.308 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.495 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.312 (N = 684)</t>
-  </si>
-  <si>
-    <t>0.773 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.481 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.278 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.099 (N = 1028)</t>
-  </si>
-  <si>
-    <t>0.067 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.012 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.008 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.001 (N = 868)</t>
-  </si>
-  <si>
-    <t>0.487 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.151 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.072 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.033 (N = 708)</t>
-  </si>
-  <si>
-    <t>0.91 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.661 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.574 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.307 (N = 1044)</t>
-  </si>
-  <si>
-    <t>0.619 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.473 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.45 (N = 884)</t>
-  </si>
-  <si>
-    <t>0.423 (N = 884)</t>
+    <t>0.448 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.837 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.209 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.43 (N = 934)</t>
+  </si>
+  <si>
+    <t>0.538 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.742 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.467 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.641 (N = 774)</t>
+  </si>
+  <si>
+    <t>0.297 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.18 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.104 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.442 (N = 614)</t>
+  </si>
+  <si>
+    <t>0.489 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.902 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.217 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.511 (N = 1002)</t>
+  </si>
+  <si>
+    <t>0.708 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.737 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.272 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.512 (N = 842)</t>
+  </si>
+  <si>
+    <t>0.583 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.239 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.341 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.526 (N = 682)</t>
+  </si>
+  <si>
+    <t>0.38 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.778 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.489 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.293 (N = 1026)</t>
+  </si>
+  <si>
+    <t>0.125 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.067 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.013 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.008 (N = 867)</t>
+  </si>
+  <si>
+    <t>0.587 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.484 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.151 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.075 (N = 707)</t>
+  </si>
+  <si>
+    <t>0.906 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.912 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.665 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.58 (N = 1042)</t>
+  </si>
+  <si>
+    <t>0.642 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.621 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.473 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.453 (N = 883)</t>
+  </si>
+  <si>
+    <t>0.877 (N = 724)</t>
   </si>
   <si>
     <t>0.858 (N = 724)</t>
@@ -2492,43 +2507,40 @@
     <t>0.268 (N = 724)</t>
   </si>
   <si>
-    <t>0.357 (N = 724)</t>
-  </si>
-  <si>
-    <t>0.278 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.151 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.04 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.079 (N = 1052)</t>
-  </si>
-  <si>
-    <t>0.696 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.508 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.474 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.455 (N = 892)</t>
-  </si>
-  <si>
-    <t>0.43 (N = 732)</t>
-  </si>
-  <si>
-    <t>0.194 (N = 732)</t>
-  </si>
-  <si>
-    <t>0.022 (N = 732)</t>
-  </si>
-  <si>
-    <t>0.072 (N = 732)</t>
+    <t>0.201 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.243 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.133 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.036 (N = 1050)</t>
+  </si>
+  <si>
+    <t>0.799 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.661 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.501 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.48 (N = 890)</t>
+  </si>
+  <si>
+    <t>0.499 (N = 730)</t>
+  </si>
+  <si>
+    <t>0.409 (N = 730)</t>
+  </si>
+  <si>
+    <t>0.196 (N = 730)</t>
+  </si>
+  <si>
+    <t>0.024 (N = 730)</t>
   </si>
 </sst>
 </file>
@@ -2923,19 +2935,19 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2946,19 +2958,19 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2969,19 +2981,19 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2992,19 +3004,19 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3015,19 +3027,19 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3038,19 +3050,19 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3061,19 +3073,19 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3084,19 +3096,19 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G9" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3107,19 +3119,19 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3130,19 +3142,19 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3153,19 +3165,19 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3176,19 +3188,19 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3199,19 +3211,19 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G14" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3222,19 +3234,19 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G15" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3245,19 +3257,19 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G16" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3268,19 +3280,19 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F17" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3291,19 +3303,19 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3314,19 +3326,19 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3337,19 +3349,19 @@
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3360,19 +3372,19 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G21" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3383,19 +3395,19 @@
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F22" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G22" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3406,19 +3418,19 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F23" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G23" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3429,19 +3441,19 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G24" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3449,22 +3461,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G25" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3472,22 +3484,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3495,22 +3507,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3518,22 +3530,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F28" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G28" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3541,22 +3553,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G29" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3564,22 +3576,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3587,22 +3599,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G31" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3610,22 +3622,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F32" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3633,22 +3645,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3656,22 +3668,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F34" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G34" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3679,22 +3691,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3702,22 +3714,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3725,22 +3737,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G37" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3748,22 +3760,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3771,22 +3783,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3794,22 +3806,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3817,22 +3829,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3840,22 +3852,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G42" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3863,22 +3875,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3886,22 +3898,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3909,22 +3921,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3932,22 +3944,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3955,22 +3967,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3978,22 +3990,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G48" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4001,22 +4013,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G49" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4024,22 +4036,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G50" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4047,22 +4059,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G51" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4070,22 +4082,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G52" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4093,22 +4105,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4116,22 +4128,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G54" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4139,22 +4151,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F55" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4162,22 +4174,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F56" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G56" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4185,22 +4197,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G57" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4208,22 +4220,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F58" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G58" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4231,22 +4243,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4254,22 +4266,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G60" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4277,22 +4289,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F61" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G61" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4333,1382 +4345,1382 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E4" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F4" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="G4" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F5" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G5" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D6" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F6" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F7" t="s">
-        <v>587</v>
+        <v>729</v>
       </c>
       <c r="G7" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F8" t="s">
-        <v>726</v>
+        <v>592</v>
       </c>
       <c r="G8" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F9" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G9" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G10" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D11" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E11" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F11" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="G11" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C12" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D12" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E12" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F12" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G12" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D13" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E13" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F13" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G13" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C14" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D14" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E14" t="s">
-        <v>673</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="G14" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C15" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D15" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E15" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F15" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G15" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D16" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E16" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F16" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G16" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D17" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E17" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F17" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G17" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D18" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E18" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F18" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G18" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D19" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E19" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F19" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="G19" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C20" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D20" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E20" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F20" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G20" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D21" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E21" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F21" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G21" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C22" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D22" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E22" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F22" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G22" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C23" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D23" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E23" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F23" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G23" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D24" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E24" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F24" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="G24" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C25" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D25" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E25" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F25" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G25" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D26" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E26" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F26" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="G26" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B27" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D27" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E27" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F27" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="G27" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B28" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C28" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D28" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E28" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F28" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="G28" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B29" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D29" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E29" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F29" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="G29" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B30" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C30" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D30" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E30" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F30" t="s">
-        <v>331</v>
+        <v>751</v>
       </c>
       <c r="G30" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B31" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C31" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D31" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E31" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F31" t="s">
-        <v>747</v>
+        <v>336</v>
       </c>
       <c r="G31" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B32" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C32" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D32" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E32" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F32" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="G32" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B33" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C33" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D33" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E33" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F33" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="G33" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B34" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C34" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D34" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E34" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F34" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G34" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B35" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C35" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D35" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E35" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F35" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="G35" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B36" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C36" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D36" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E36" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F36" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="G36" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B37" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D37" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E37" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F37" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="G37" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B38" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C38" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D38" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E38" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F38" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="G38" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C39" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D39" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E39" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F39" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="G39" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B40" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C40" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D40" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E40" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F40" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G40" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B41" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C41" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D41" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E41" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F41" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="G41" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B42" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C42" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D42" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E42" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F42" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G42" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B43" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C43" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D43" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E43" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F43" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="G43" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B44" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C44" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D44" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E44" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F44" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="G44" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B45" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C45" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D45" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E45" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F45" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="G45" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B46" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C46" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D46" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E46" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F46" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="G46" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B47" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C47" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D47" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E47" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F47" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="G47" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B48" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C48" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D48" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E48" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F48" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G48" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B49" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C49" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D49" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E49" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F49" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="G49" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C50" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D50" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E50" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F50" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G50" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D51" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E51" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F51" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="G51" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C52" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D52" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E52" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F52" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="G52" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C53" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D53" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E53" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F53" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="G53" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B54" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C54" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D54" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E54" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F54" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="G54" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C55" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D55" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E55" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F55" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G55" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D56" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E56" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F56" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G56" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B57" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C57" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D57" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E57" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F57" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="G57" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C58" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D58" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E58" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F58" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="G58" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C59" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D59" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E59" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F59" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="G59" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C60" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D60" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E60" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F60" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="G60" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C61" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D61" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E61" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F61" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="G61" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
